--- a/analyseSEO/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/analyseSEO/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenClassrooms\Projet_4_optimise\analyseSEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F2A600-1AE1-496B-B1CC-9DFD406D9CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6175ED5-C519-4656-AAB7-F45C0CA29934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>Categorie</t>
   </si>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t xml:space="preserve">Revoir l'appellation des H2 </t>
+  </si>
+  <si>
+    <t>balise meta keyword</t>
+  </si>
+  <si>
+    <t>balise obsolète à effacer</t>
+  </si>
+  <si>
+    <t>Balise non lu par les récents moteurs de recherche</t>
+  </si>
+  <si>
+    <t>supprimer les balises</t>
   </si>
 </sst>
 </file>
@@ -281,9 +293,10 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +307,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -316,18 +335,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -602,22 +628,22 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -628,16 +654,16 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -648,16 +674,16 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -668,16 +694,16 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -688,16 +714,16 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -708,16 +734,16 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -728,16 +754,16 @@
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -748,16 +774,16 @@
       <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -768,16 +794,16 @@
       <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -788,57 +814,57 @@
       <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="B12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -846,18 +872,18 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -866,18 +892,18 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -886,18 +912,18 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -906,234 +932,253 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F18" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
     <row r="52" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2085,8 +2130,9 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/analyseSEO/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/analyseSEO/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenClassrooms\Projet_4_optimise\analyseSEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6175ED5-C519-4656-AAB7-F45C0CA29934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6568AD-2953-45C9-9D02-AC6BFFF2F0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>Categorie</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>supprimer les balises</t>
+  </si>
+  <si>
+    <t>changement des balises meta Js et CSS ne fonctionnaient pas sur la page 2</t>
+  </si>
+  <si>
+    <t>suppression de media device-with devenue oobsolete remplacer juste par width</t>
   </si>
 </sst>
 </file>
@@ -572,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -648,139 +654,139 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -808,22 +814,22 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -868,19 +874,19 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -888,22 +894,22 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -928,22 +934,22 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -968,22 +974,22 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -994,12 +1000,18 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>

--- a/analyseSEO/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/analyseSEO/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenClassrooms\Projet_4_optimise\analyseSEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6568AD-2953-45C9-9D02-AC6BFFF2F0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D738DF92-4BB7-483A-98EA-583303496CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>Categorie</t>
   </si>
@@ -43,235 +43,265 @@
     <t>SEO</t>
   </si>
   <si>
-    <t>seulement un "." en titre</t>
-  </si>
-  <si>
     <t>Utiliser un titre clair avec un mot clé définit dedans</t>
   </si>
   <si>
     <t>L'utilisateur n'aura pas de titre sur son onglet et le référencement de la page se fera mal car la page html n'a pas de titre</t>
   </si>
   <si>
-    <t>Faire une recherche de mot clé et l'insérer dans le titre</t>
-  </si>
-  <si>
     <t>cours SEO</t>
   </si>
   <si>
-    <t>pas de description</t>
-  </si>
-  <si>
     <t>Utiliser une description claire avec un mot clé définit dedans</t>
   </si>
   <si>
-    <t>Créer un petit texte qui décrit le site en y implantant un ou des mots clés</t>
-  </si>
-  <si>
-    <t>metttre balise meta robot avec index,folow</t>
-  </si>
-  <si>
-    <t>sans cette balise le spider google ne vas pas crawler la page ni y suivre ses liens</t>
-  </si>
-  <si>
-    <t>insérer une balise dans le HEAD</t>
-  </si>
-  <si>
-    <t>pas de balise robot</t>
-  </si>
-  <si>
-    <t>répétition de keywords</t>
-  </si>
-  <si>
-    <t>utilisé le mot clés aux endroits adaptés et avec parcimonie</t>
-  </si>
-  <si>
-    <t>des mots clefs hors du contexte et cachés sont implantés sur la page web, ce qui est interdit, google peut arreter de referencer la page pour cela</t>
-  </si>
-  <si>
-    <t>répertorier tous les endroits ou cette mauvaise pratique est utilisée et la corriger en y mettant des vrais descriptifs avec un mot clé définis dedans pour améliorer le référencement</t>
-  </si>
-  <si>
-    <t>pas de mot clés de H1</t>
-  </si>
-  <si>
     <t>Mettre son mot clé dans le H1</t>
   </si>
   <si>
     <t>Le h1 est la vitrine du site c'est pourquoi il doit comporter le mot clé pour un meilleur référencement</t>
   </si>
   <si>
-    <t>Trouvé une façon d'insérer le mot clé dans le titre</t>
-  </si>
-  <si>
-    <t>indexation</t>
-  </si>
-  <si>
-    <t>utlise des balises sémantiques pour facilité le cwraling du robot</t>
-  </si>
-  <si>
-    <t>Sans les balises sémantiques le spider ne saura pas dans quelle partie du site il se trouve utilise le plus de balsie sémantiques possible lui facilite le travail et lui permet de crawlr plus rapidement</t>
-  </si>
-  <si>
-    <t>mettre des balises sémantiques à la place de certaine &lt;div&gt;</t>
-  </si>
-  <si>
-    <t>descriptif alternatifs</t>
-  </si>
-  <si>
-    <t>décrire en détail l'élément et y insérer un mot clés pour améliorer le référencement quand c'est possible</t>
-  </si>
-  <si>
-    <t>ici il y a des keywords sans queue ni tete lorsqu'un utilisateur utilisera une liseuse il ne comprendra rien</t>
-  </si>
-  <si>
-    <t>reprendre tous les alt et y ajouter des descriptifs cohérents</t>
-  </si>
-  <si>
-    <t>image trop grande</t>
-  </si>
-  <si>
-    <t>utiliser des images qui rentre dans leur élément</t>
-  </si>
-  <si>
-    <t>le site mettra plus de temps à charger avec des images qui sont rétrécis à l'aide d'un css</t>
-  </si>
-  <si>
-    <t>compresser les images du fichier et aussi les réduire pour qu'elles rentrent dans leurs éléments</t>
-  </si>
-  <si>
-    <t>mauvaise qualité de lien</t>
-  </si>
-  <si>
-    <t>avoir des liens en relation avec son domaine et cohérents</t>
-  </si>
-  <si>
-    <t>le site dirige vers des liens erreur 404 et vers des liens sans connection avec le domaine du web google peut prendre cela pour du spam</t>
-  </si>
-  <si>
-    <t>trier les liens et garder seulement ceux qui sont cohérents</t>
-  </si>
-  <si>
     <t>accessibilité</t>
   </si>
   <si>
-    <t>masquage de contenu</t>
-  </si>
-  <si>
-    <t>jamais caché des contenus à l'aide d'opacité ou de même background</t>
-  </si>
-  <si>
-    <t>cela est vu comme du spam par google et est sanctionnable</t>
-  </si>
-  <si>
-    <t>enlever tous les éléments cachés</t>
-  </si>
-  <si>
     <t>accessibilité mobile MDN</t>
   </si>
   <si>
-    <t>focus de la navigation clavier</t>
-  </si>
-  <si>
-    <t>tous les éléments activables doivent pour être focus à l'aide du clavier et pour cela un marqueur doit signifier sur quel élément le focus se trouve</t>
-  </si>
-  <si>
-    <t>l'absence d'un focus empêche aux utilisateurs utilisant seulement le clavier de naviguer correctement sur le site</t>
-  </si>
-  <si>
-    <t>réaliser un répertoire des éléments activables et leur assigner une balise pour qu'ils puissent être focus</t>
-  </si>
-  <si>
-    <t>aria permet d'aider a l'accessibilité du site</t>
-  </si>
-  <si>
-    <t>aria permet d'utiliser les techniques d'assistance sans balise aria cela n'est pas possible donc on un probleme d'accessibilité</t>
-  </si>
-  <si>
-    <t>insérer des balises aria adapté pour chaque éléments qui en nécessite</t>
-  </si>
-  <si>
-    <t>pas de balise aria</t>
-  </si>
-  <si>
-    <t>texte sous forme d'image</t>
-  </si>
-  <si>
-    <t>ne jamais insérer dees textes dans des images</t>
-  </si>
-  <si>
-    <t>l'utilisateur aura plus de mal a joeur avec la taille de police si le texte est en image</t>
-  </si>
-  <si>
-    <t>enlever les dites images et insérer du code html</t>
-  </si>
-  <si>
-    <t>langue pas donnée</t>
-  </si>
-  <si>
-    <t>mettre la langue du site</t>
-  </si>
-  <si>
-    <t>sans langue ou avec une mauvaise langue les liseuses prendront le mauvais accent</t>
-  </si>
-  <si>
-    <t>mettre fr dans le HEAD</t>
-  </si>
-  <si>
-    <t>image non responsive</t>
-  </si>
-  <si>
-    <t>le site doit être responsive</t>
-  </si>
-  <si>
-    <t>les images de textes ne modifient pas leur taille selon la alrgeur de l'écran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enlever les images de texte </t>
-  </si>
-  <si>
-    <t>Url avec le nom du site + mot clé</t>
-  </si>
-  <si>
-    <t>avoir une URL intelligible sans nombre dedans et avec le mot clé défini</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Créer une URL avec le nom du site et y ajouter le mot clé</t>
-  </si>
-  <si>
-    <t>L'utilisateur n'aura pas de descriptif du site ce qui est un plus pour le site de plus l'implantation du mot clé dedans permettra d'augmenter son référencement. Vu que la description est affiché dans les résultats il faut qu'elle donne envie à l'utilisateur de cliquer sur notre lien</t>
-  </si>
-  <si>
     <t>Mot clé h2</t>
   </si>
   <si>
-    <t>avoir des mots clés ou similaire dans les h2</t>
-  </si>
-  <si>
-    <t>peu de mot clés insérer dans les sous parties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revoir l'appellation des H2 </t>
-  </si>
-  <si>
-    <t>balise meta keyword</t>
-  </si>
-  <si>
-    <t>balise obsolète à effacer</t>
-  </si>
-  <si>
     <t>Balise non lu par les récents moteurs de recherche</t>
   </si>
   <si>
-    <t>supprimer les balises</t>
-  </si>
-  <si>
-    <t>changement des balises meta Js et CSS ne fonctionnaient pas sur la page 2</t>
-  </si>
-  <si>
-    <t>suppression de media device-with devenue oobsolete remplacer juste par width</t>
+    <t>Intégrer un sitemap</t>
+  </si>
+  <si>
+    <t>Grâce au site map le spider pourra crawler plus rapidement la page</t>
+  </si>
+  <si>
+    <t>Réalisation d'un Sitemap pour améliorer la crawlabilité du site internet</t>
+  </si>
+  <si>
+    <t>Mettre un titre de page avec un mot clé dedans</t>
+  </si>
+  <si>
+    <t>Mettre une description attractive qui décrit l'agence web et donne envie à l'utilisateur de visiter la page</t>
+  </si>
+  <si>
+    <t>Insérer un mot clé dans le titre principal pour un meilleur référencement</t>
+  </si>
+  <si>
+    <t>Effacer tous les keywords inutiles et sans lien avec l'agence</t>
+  </si>
+  <si>
+    <t>Insérer des balises sémantiques dans l'html</t>
+  </si>
+  <si>
+    <t>Trouver des descriptifs alternatifs pour les photos et y entrer des mots clés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rétrécir la taille des images et les compresser </t>
+  </si>
+  <si>
+    <t>Insérer des mots clés dans les h2</t>
+  </si>
+  <si>
+    <t>Effacer cette balise</t>
+  </si>
+  <si>
+    <t>Effacer les mauvais liens</t>
+  </si>
+  <si>
+    <t>Effacer les liens Black-Hat</t>
+  </si>
+  <si>
+    <t>Insérer un visuel pour que l'on voit le focus clavier</t>
+  </si>
+  <si>
+    <t>Supprimer les images et les remplacer par du texte</t>
+  </si>
+  <si>
+    <t>Mettre les documents en français</t>
+  </si>
+  <si>
+    <t>Minifier le CSS et le JS pour améliorer les performances</t>
+  </si>
+  <si>
+    <t>Support Google</t>
+  </si>
+  <si>
+    <t>SEO + accessibilité</t>
+  </si>
+  <si>
+    <t>Seulement un "." en titre</t>
+  </si>
+  <si>
+    <t>Pas de description</t>
+  </si>
+  <si>
+    <t>L'utilisateur n'aura pas de descriptif du site. De plus l'implantation du mot clé dedans permettra d'augmenter son référencement. Vu que la description est affichée dans les résultats il faut qu'elle donne envie à l'utilisateur de cliquer sur notre lien</t>
+  </si>
+  <si>
+    <t>Pas de balise robot</t>
+  </si>
+  <si>
+    <t>Mettre une balise meta robot avec index,folow</t>
+  </si>
+  <si>
+    <t>Sans cette balise le spider google ne vas pas crawler la page ni y suivre ses liens</t>
+  </si>
+  <si>
+    <t>Insérer une balise robot dans l'html pour dire au robot google d'indexer la page et suivre ses liens</t>
+  </si>
+  <si>
+    <t>Répétition de keywords</t>
+  </si>
+  <si>
+    <t>Utiliser le mot clé aux endroits adaptés et avec parcimonie</t>
+  </si>
+  <si>
+    <t>Des mots clés hors du contexte et cachés sont implantés sur la page web, ce qui est interdit, google peut arrêter de referencer la page pour cela</t>
+  </si>
+  <si>
+    <t>Pas de mot clé dans le H1</t>
+  </si>
+  <si>
+    <t>Indexation</t>
+  </si>
+  <si>
+    <t>Utliser des balises sémantiques pour faciliter le crawling du robot</t>
+  </si>
+  <si>
+    <t>Sans les balises sémantiques le spider ne saura pas dans quelle partie du site il se trouve. Utiliser le plus de balsie sémantiques possible lui facilite le travail et lui permet de crawler plus rapidement</t>
+  </si>
+  <si>
+    <t>Descriptif alternatifs</t>
+  </si>
+  <si>
+    <t>Décrire en détail l'élément et y insérer un mot clé pour améliorer le référencement quand c'est possible</t>
+  </si>
+  <si>
+    <t>Ici il y a des keywords sans queue ni tête lorsqu'un utilisateur utilisera une liseuse il ne comprendra rien</t>
+  </si>
+  <si>
+    <t>Images trop grandes et lourdes</t>
+  </si>
+  <si>
+    <t>Utiliser des images qui rentrent dans leur élément</t>
+  </si>
+  <si>
+    <t>Le site mettra plus de temps à charger avec des images qui sont rétrécis à l'aide d'un css ou qui sont lourdes</t>
+  </si>
+  <si>
+    <t>Permet de donner des infos sur toutes les url du site à Google</t>
+  </si>
+  <si>
+    <t>Avoir des mots clés ou similaire dans les h2</t>
+  </si>
+  <si>
+    <t>Peu de mot clés insérer dans les sous parties</t>
+  </si>
+  <si>
+    <t>Balise meta keyword</t>
+  </si>
+  <si>
+    <t>Balise obsolète à effacer</t>
+  </si>
+  <si>
+    <t>Mauvaise qualité de lien</t>
+  </si>
+  <si>
+    <t>Avoir des liens en relation et cohérents avec son domaine d'activité</t>
+  </si>
+  <si>
+    <t>Le site dirige vers des liens erreur 404 et vers des liens sans connection avec le domaine du web. Google peut prendre cela pour du spam</t>
+  </si>
+  <si>
+    <t>Masquage de contenu</t>
+  </si>
+  <si>
+    <t>Jamais cacher des contenus à l'aide d'opacité ou de même background</t>
+  </si>
+  <si>
+    <t>Focus de la navigation clavier</t>
+  </si>
+  <si>
+    <t>Tous les éléments activables doivent pour être focus à l'aide du clavier et pour cela un marqueur doit signifier sur quel élément le focus se trouve</t>
+  </si>
+  <si>
+    <t>L'absence d'un focus empêche aux utilisateurs utilisant seulement le clavier de naviguer correctement sur le site</t>
+  </si>
+  <si>
+    <t>Pas de balise aria</t>
+  </si>
+  <si>
+    <t>Aria permet d'aider à l'accessibilité du site</t>
+  </si>
+  <si>
+    <t>Aria permet d'utiliser les techniques d'assistance sans balise aria cela n'est pas possible donc on un problème d'accessibilité</t>
+  </si>
+  <si>
+    <t>Mettre des balises ARIA dans les endroits adéquates</t>
+  </si>
+  <si>
+    <t>Texte sous forme d'image</t>
+  </si>
+  <si>
+    <t>Ne jamais insérer des textes dans des images</t>
+  </si>
+  <si>
+    <t>L'utilisateur aura plus de mal a jouer avec la taille de police si le texte est en image</t>
+  </si>
+  <si>
+    <t>Mettre la langue du site</t>
+  </si>
+  <si>
+    <t>Langue pas donnée</t>
+  </si>
+  <si>
+    <t>Sans langue ou avec une mauvaise langue les liseuses prendront le mauvais accent</t>
+  </si>
+  <si>
+    <t>Minifier Le css et JS</t>
+  </si>
+  <si>
+    <t>Minifier son code permet un échange de données plus rapide entre le site et le serveur donc diminuera le temps de chargement de la page et augmentera son SEO</t>
+  </si>
+  <si>
+    <t>Minifier les codes</t>
+  </si>
+  <si>
+    <t>Cela est vu comme du spam par google et est sanctionnable</t>
+  </si>
+  <si>
+    <t>Mauvais contraste</t>
+  </si>
+  <si>
+    <t>Avoir un contraste de 4:5:1 entre le texte et le background</t>
+  </si>
+  <si>
+    <t>Pour les personnes ayant des problèmes de vue le faible contraste peu empêcher la lecture du site</t>
+  </si>
+  <si>
+    <t>Rectifier tous les contrastes</t>
+  </si>
+  <si>
+    <t>WCAG 1.4.3</t>
+  </si>
+  <si>
+    <t>WCAG 1.4.5</t>
+  </si>
+  <si>
+    <t>WCAG 1.1.1</t>
+  </si>
+  <si>
+    <t>WCAG 2.4.7</t>
+  </si>
+  <si>
+    <t>WCAG 3.1.1</t>
+  </si>
+  <si>
+    <t>Support Google (https://support.google.com/webmasters/answer/7451184?hl=fr)</t>
   </si>
 </sst>
 </file>
@@ -302,7 +332,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,12 +347,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -337,11 +373,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,12 +417,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -578,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -634,400 +714,416 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="D6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="B15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="B19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D19" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>11</v>
+      <c r="E19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>

--- a/analyseSEO/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/analyseSEO/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenClassrooms\Projet_4_optimise\analyseSEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D738DF92-4BB7-483A-98EA-583303496CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68A291B-79E8-4188-95D8-140FCDB32C29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
   <si>
     <t>Categorie</t>
   </si>
@@ -67,9 +67,6 @@
     <t>accessibilité mobile MDN</t>
   </si>
   <si>
-    <t>Mot clé h2</t>
-  </si>
-  <si>
     <t>Balise non lu par les récents moteurs de recherche</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t xml:space="preserve">Rétrécir la taille des images et les compresser </t>
   </si>
   <si>
-    <t>Insérer des mots clés dans les h2</t>
-  </si>
-  <si>
     <t>Effacer cette balise</t>
   </si>
   <si>
@@ -196,12 +190,6 @@
     <t>Permet de donner des infos sur toutes les url du site à Google</t>
   </si>
   <si>
-    <t>Avoir des mots clés ou similaire dans les h2</t>
-  </si>
-  <si>
-    <t>Peu de mot clés insérer dans les sous parties</t>
-  </si>
-  <si>
     <t>Balise meta keyword</t>
   </si>
   <si>
@@ -302,6 +290,21 @@
   </si>
   <si>
     <t>Support Google (https://support.google.com/webmasters/answer/7451184?hl=fr)</t>
+  </si>
+  <si>
+    <t>Chargement du JS un peu long</t>
+  </si>
+  <si>
+    <t>Insérer Async dans les balises js</t>
+  </si>
+  <si>
+    <t>Cours performances SEO</t>
+  </si>
+  <si>
+    <t>Ajouter les fonction defer ou async pour améliorer le chargement du JS ( async quand l'ordre d'éxecution n'a pas d'importance defer dans le cas inverse)</t>
+  </si>
+  <si>
+    <t>Sans ces fonctions, la page ne s'affichera pas tant que tout n'est pas chargé</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,9 +425,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -656,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -714,43 +714,43 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>93</v>
+      <c r="F3" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -758,16 +758,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>9</v>
@@ -778,38 +778,38 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -818,58 +818,58 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="E8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="D9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -878,58 +878,58 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="D11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="D12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -938,192 +938,190 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="D14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>9</v>
+      <c r="F19" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
@@ -1192,10 +1190,10 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
@@ -1281,12 +1279,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
+    <row r="51" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2238,7 +2231,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/analyseSEO/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/analyseSEO/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenClassrooms\Projet_4_optimise\analyseSEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68A291B-79E8-4188-95D8-140FCDB32C29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A69FF3-0F9D-462A-8CE1-6844544F78A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,9 +295,6 @@
     <t>Chargement du JS un peu long</t>
   </si>
   <si>
-    <t>Insérer Async dans les balises js</t>
-  </si>
-  <si>
     <t>Cours performances SEO</t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>Sans ces fonctions, la page ne s'affichera pas tant que tout n'est pas chargé</t>
+  </si>
+  <si>
+    <t>Insérer "defer" dans les balises js</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1081,16 +1081,16 @@
         <v>90</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/analyseSEO/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/analyseSEO/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenClassrooms\Projet_4_optimise\analyseSEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A69FF3-0F9D-462A-8CE1-6844544F78A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B60FB5-64E0-48B4-B902-B36E532DEF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
   <si>
     <t>Categorie</t>
   </si>
@@ -305,13 +305,19 @@
   </si>
   <si>
     <t>Insérer "defer" dans les balises js</t>
+  </si>
+  <si>
+    <t>Cours SEO</t>
+  </si>
+  <si>
+    <t>Site Ionos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,6 +339,12 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -405,10 +417,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,8 +454,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,7 +679,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -729,8 +749,8 @@
       <c r="E2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>88</v>
+      <c r="F2" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -749,7 +769,7 @@
       <c r="E3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -769,7 +789,7 @@
       <c r="E4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -789,7 +809,7 @@
       <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -809,7 +829,7 @@
       <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -829,7 +849,7 @@
       <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -849,7 +869,7 @@
       <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="16" t="s">
         <v>86</v>
       </c>
     </row>
@@ -869,7 +889,7 @@
       <c r="E9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -889,7 +909,7 @@
       <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -909,8 +929,8 @@
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>9</v>
+      <c r="F11" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -929,7 +949,7 @@
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -949,7 +969,7 @@
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -969,7 +989,7 @@
       <c r="E14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="16" t="s">
         <v>87</v>
       </c>
     </row>
@@ -989,7 +1009,7 @@
       <c r="E15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1009,7 +1029,7 @@
       <c r="E16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1029,8 +1049,8 @@
       <c r="E17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>9</v>
+      <c r="F17" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1049,7 +1069,7 @@
       <c r="E18" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1069,7 +1089,7 @@
       <c r="E19" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="17" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1089,7 +1109,7 @@
       <c r="E20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="17" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2232,7 +2252,28 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{EBC69D24-BB29-49C5-AC4D-8328ACCC3942}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{9082B6D6-963F-441C-85B8-7C9D8C7C6411}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{7F2180B3-264E-41C4-BD77-24B93C5855A0}"/>
+    <hyperlink ref="F15" r:id="rId4" xr:uid="{2B6FA34A-FD03-4386-9666-79D4458A2B5C}"/>
+    <hyperlink ref="F19" r:id="rId5" xr:uid="{E6C708FF-83CD-4722-85D1-1AF93AF6259B}"/>
+    <hyperlink ref="F17" r:id="rId6" xr:uid="{06B0AE2B-B893-47AF-873B-44626B66D620}"/>
+    <hyperlink ref="F16" r:id="rId7" xr:uid="{CCABF3C2-A457-46F4-9F82-1CA752006196}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{46969FC9-A714-4259-9158-D66ECF21F2C4}"/>
+    <hyperlink ref="F8" r:id="rId9" xr:uid="{68120386-390C-43A5-AD0F-122BF7AFC829}"/>
+    <hyperlink ref="F4" r:id="rId10" xr:uid="{14EBF99C-FD65-4F38-B058-7A09059FCAF2}"/>
+    <hyperlink ref="F6" r:id="rId11" xr:uid="{3FEEFA3A-A8E5-41EF-B5B0-118A499FF0E4}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{FBA0B080-D223-4DA8-B7D4-CAC9E10D133D}"/>
+    <hyperlink ref="F18" r:id="rId13" xr:uid="{1AB70AE3-4713-45C6-80F5-BAB6699B161F}"/>
+    <hyperlink ref="F20" r:id="rId14" xr:uid="{252CD4BA-CA56-4B03-B794-0045AFA22BBB}"/>
+    <hyperlink ref="F9" r:id="rId15" xr:uid="{1162BB6B-E52A-4FC9-A1D6-8C457DEDBDF6}"/>
+    <hyperlink ref="F2" r:id="rId16" xr:uid="{024DA6DE-4EA9-46B2-9C73-2E97D4AECFD0}"/>
+    <hyperlink ref="F5" r:id="rId17" xr:uid="{F9A91D0C-B649-4D36-BA09-150497AAC71A}"/>
+    <hyperlink ref="F12" r:id="rId18" xr:uid="{3B8BD12A-0074-4278-977B-4DF6F52CD5F0}"/>
+    <hyperlink ref="F11" r:id="rId19" xr:uid="{74980C35-DBB9-47AA-AD2D-A94EB512F2C2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId20"/>
 </worksheet>
 </file>